--- a/UI_Report.xlsx
+++ b/UI_Report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="56">
   <si>
     <t>MONTHLY REPORT</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Srikar Reddy</t>
-  </si>
-  <si>
-    <t>No Code @ Github</t>
   </si>
   <si>
     <t>SrinadhReddy</t>
@@ -193,12 +190,27 @@
   <si>
     <t>OFFICE MAINTAINENCE WORK HOLIDAY</t>
   </si>
+  <si>
+    <t>Landing_Page</t>
+  </si>
+  <si>
+    <t>25_Mail &amp; Github®</t>
+  </si>
+  <si>
+    <t>NO  ONE MAILED &amp; UPDATED</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Done</t>
+  </si>
+  <si>
+    <t>AUDIT HOLIDAY</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +309,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -318,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -337,11 +363,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -358,6 +381,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -367,9 +396,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:T18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3:X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -683,52 +717,53 @@
     <col min="10" max="10" width="23.85546875" customWidth="1"/>
     <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.5703125" customWidth="1"/>
+    <col min="22" max="22" width="27.85546875" customWidth="1"/>
     <col min="28" max="30" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="39" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
     </row>
     <row r="2" spans="1:30" ht="15.75">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2">
         <v>7</v>
@@ -737,17 +772,17 @@
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="K2" s="1">
         <v>14</v>
@@ -759,7 +794,7 @@
         <v>16</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O2" s="2">
         <v>18</v>
@@ -782,8 +817,8 @@
       <c r="U2" s="2">
         <v>24</v>
       </c>
-      <c r="V2" s="2">
-        <v>25</v>
+      <c r="V2" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="W2" s="1">
         <v>26</v>
@@ -812,47 +847,57 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="16"/>
+        <v>34</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="15"/>
       <c r="F3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="11"/>
+        <v>34</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="16"/>
       <c r="J3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="12"/>
       <c r="M3" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="U3" s="10" t="s">
         <v>51</v>
       </c>
+      <c r="V3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="X3" s="12"/>
     </row>
     <row r="4" spans="1:30" ht="15.75">
       <c r="A4" s="4" t="s">
@@ -862,201 +907,221 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
+        <v>20</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="16"/>
       <c r="J4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
       <c r="M4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="18"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="20"/>
+        <v>29</v>
+      </c>
+      <c r="O4" s="19"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
     </row>
     <row r="5" spans="1:30" ht="15.75">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="11"/>
+        <v>34</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="16"/>
       <c r="J5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
       <c r="M5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" s="18"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="20"/>
+        <v>45</v>
+      </c>
+      <c r="O5" s="19"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
     </row>
     <row r="6" spans="1:30" ht="15.75">
       <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="4" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="11"/>
+        <v>34</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="16"/>
       <c r="J6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
       <c r="M6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="20"/>
+        <v>34</v>
+      </c>
+      <c r="O6" s="19"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
     </row>
     <row r="7" spans="1:30" ht="15.75">
       <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="4" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="11"/>
+        <v>29</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="16"/>
       <c r="J7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+        <v>29</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
       <c r="M7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="20"/>
+        <v>29</v>
+      </c>
+      <c r="O7" s="19"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
     </row>
     <row r="8" spans="1:30" ht="15.75">
       <c r="A8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="4" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="11"/>
+        <v>34</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="16"/>
       <c r="J8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
       <c r="M8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N8" t="s">
-        <v>35</v>
-      </c>
-      <c r="O8" s="18"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="20"/>
+        <v>34</v>
+      </c>
+      <c r="O8" s="19"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
     </row>
     <row r="9" spans="1:30" ht="15.75">
       <c r="A9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>3</v>
@@ -1064,199 +1129,219 @@
       <c r="C9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="11"/>
+        <v>29</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="16"/>
       <c r="J9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
       <c r="M9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O9" s="18"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="20"/>
+        <v>46</v>
+      </c>
+      <c r="O9" s="19"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
     </row>
     <row r="10" spans="1:30" ht="15.75">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="C10" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="4" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="11"/>
+        <v>34</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="16"/>
       <c r="J10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+        <v>29</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
       <c r="M10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
-      </c>
-      <c r="O10" s="18"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="20"/>
+        <v>45</v>
+      </c>
+      <c r="O10" s="19"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
     </row>
     <row r="11" spans="1:30" ht="15.75">
       <c r="A11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="4" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="11"/>
+        <v>34</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="16"/>
       <c r="J11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
       <c r="M11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O11" s="18"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="20"/>
+        <v>10</v>
+      </c>
+      <c r="O11" s="19"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
     </row>
     <row r="12" spans="1:30" ht="15.75">
       <c r="A12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+        <v>10</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="17"/>
       <c r="J12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
       <c r="M12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O12" s="18"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="20"/>
+        <v>29</v>
+      </c>
+      <c r="O12" s="19"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
     </row>
     <row r="13" spans="1:30" ht="15.75">
       <c r="A13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+        <v>10</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="17"/>
       <c r="J13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
       <c r="M13" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O13" s="18"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="20"/>
+        <v>10</v>
+      </c>
+      <c r="O13" s="19"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
     </row>
     <row r="14" spans="1:30" ht="15.75">
       <c r="A14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>3</v>
@@ -1264,198 +1349,228 @@
       <c r="C14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="11"/>
+        <v>34</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="16"/>
       <c r="J14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+        <v>29</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
       <c r="M14" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O14" s="18"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="20"/>
+        <v>47</v>
+      </c>
+      <c r="O14" s="19"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
     </row>
     <row r="15" spans="1:30" ht="15.75">
       <c r="A15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+        <v>29</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="11"/>
+        <v>34</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="16"/>
       <c r="J15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
       <c r="M15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N15" t="s">
-        <v>48</v>
-      </c>
-      <c r="O15" s="18"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="20"/>
+        <v>47</v>
+      </c>
+      <c r="O15" s="19"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
     </row>
     <row r="16" spans="1:30" ht="15.75">
       <c r="A16" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+        <v>29</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="11"/>
+        <v>29</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="16"/>
       <c r="J16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
       <c r="M16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N16" t="s">
-        <v>11</v>
-      </c>
-      <c r="O16" s="18"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="20"/>
-    </row>
-    <row r="17" spans="1:20" ht="15.75">
+        <v>10</v>
+      </c>
+      <c r="O16" s="19"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+    </row>
+    <row r="17" spans="1:24" ht="15.75">
       <c r="A17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+        <v>29</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="17"/>
       <c r="J17" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+        <v>29</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
       <c r="M17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N17" t="s">
-        <v>48</v>
-      </c>
-      <c r="O17" s="18"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="20"/>
-    </row>
-    <row r="18" spans="1:20" ht="15.75">
+        <v>47</v>
+      </c>
+      <c r="O17" s="19"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+    </row>
+    <row r="18" spans="1:24" ht="15.75">
       <c r="A18" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+        <v>29</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="11"/>
+        <v>29</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="16"/>
       <c r="J18" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
       <c r="M18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N18" t="s">
-        <v>49</v>
-      </c>
-      <c r="O18" s="18"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="20"/>
+        <v>48</v>
+      </c>
+      <c r="O18" s="19"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="26">
+    <mergeCell ref="U3:U18"/>
+    <mergeCell ref="V3:V18"/>
+    <mergeCell ref="W3:X18"/>
+    <mergeCell ref="P3:S18"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H17:I17"/>
     <mergeCell ref="T3:T18"/>
     <mergeCell ref="K3:L18"/>
     <mergeCell ref="A1:AD1"/>
@@ -1472,13 +1587,6 @@
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="O3:O18"/>
-    <mergeCell ref="P3:S18"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H17:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/UI_Report.xlsx
+++ b/UI_Report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="58">
   <si>
     <t>MONTHLY REPORT</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>AUDIT HOLIDAY</t>
+  </si>
+  <si>
+    <t>SAT &amp; SUN HOLIDAY</t>
+  </si>
+  <si>
+    <t>NO POWER AT OFFICE</t>
   </si>
 </sst>
 </file>
@@ -363,13 +369,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -381,29 +407,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3:X18"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3:AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -722,38 +728,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="39" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
     </row>
     <row r="2" spans="1:30" ht="15.75">
       <c r="A2" s="3" t="s">
@@ -777,10 +783,10 @@
       <c r="G2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="19"/>
       <c r="J2" s="2" t="s">
         <v>40</v>
       </c>
@@ -849,55 +855,62 @@
       <c r="C3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="16"/>
+      <c r="I3" s="19"/>
       <c r="J3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="12"/>
+      <c r="L3" s="15"/>
       <c r="M3" s="6" t="s">
         <v>34</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="P3" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="10" t="s">
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="U3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V3" s="22" t="s">
+      <c r="V3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="W3" s="10" t="s">
+      <c r="W3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="X3" s="12"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="12" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="4" spans="1:30" ht="15.75">
       <c r="A4" s="4" t="s">
@@ -909,39 +922,42 @@
       <c r="C4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="16"/>
+      <c r="I4" s="19"/>
       <c r="J4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
       <c r="M4" t="s">
         <v>29</v>
       </c>
       <c r="N4" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="12"/>
     </row>
     <row r="5" spans="1:30" ht="15.75">
       <c r="A5" s="4" t="s">
@@ -953,39 +969,42 @@
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="F5" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="16"/>
+      <c r="H5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="19"/>
       <c r="J5" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
       <c r="M5" t="s">
         <v>34</v>
       </c>
       <c r="N5" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="12"/>
     </row>
     <row r="6" spans="1:30" ht="15.75">
       <c r="A6" s="4" t="s">
@@ -997,127 +1016,136 @@
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="16"/>
+      <c r="H6" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="19"/>
       <c r="J6" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
       <c r="M6" t="s">
         <v>34</v>
       </c>
       <c r="N6" t="s">
         <v>34</v>
       </c>
-      <c r="O6" s="19"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="12"/>
     </row>
     <row r="7" spans="1:30" ht="15.75">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="16"/>
+      <c r="H7" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="19"/>
       <c r="J7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
       <c r="M7" s="4" t="s">
         <v>29</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="19"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="12"/>
     </row>
     <row r="8" spans="1:30" ht="15.75">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="16"/>
+      <c r="H8" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="19"/>
       <c r="J8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
       <c r="M8" t="s">
         <v>34</v>
       </c>
       <c r="N8" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="19"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="12"/>
     </row>
     <row r="9" spans="1:30" ht="15.75">
       <c r="A9" s="4" t="s">
@@ -1129,39 +1157,42 @@
       <c r="C9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="16"/>
+      <c r="H9" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="19"/>
       <c r="J9" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
       <c r="M9" t="s">
         <v>34</v>
       </c>
       <c r="N9" t="s">
         <v>46</v>
       </c>
-      <c r="O9" s="19"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="12"/>
     </row>
     <row r="10" spans="1:30" ht="15.75">
       <c r="A10" s="4" t="s">
@@ -1170,42 +1201,45 @@
       <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="C10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="16"/>
+      <c r="H10" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="19"/>
       <c r="J10" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
       <c r="M10" t="s">
         <v>29</v>
       </c>
       <c r="N10" t="s">
         <v>45</v>
       </c>
-      <c r="O10" s="19"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="12"/>
     </row>
     <row r="11" spans="1:30" ht="15.75">
       <c r="A11" s="4" t="s">
@@ -1217,39 +1251,42 @@
       <c r="C11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="16"/>
+      <c r="I11" s="19"/>
       <c r="J11" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
       <c r="M11" t="s">
         <v>34</v>
       </c>
       <c r="N11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="O11" s="19"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="12"/>
     </row>
     <row r="12" spans="1:30" ht="15.75">
       <c r="A12" s="4" t="s">
@@ -1261,39 +1298,42 @@
       <c r="C12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="17"/>
+      <c r="I12" s="18"/>
       <c r="J12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
       <c r="M12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="N12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O12" s="19"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="12"/>
     </row>
     <row r="13" spans="1:30" ht="15.75">
       <c r="A13" s="4" t="s">
@@ -1305,39 +1345,42 @@
       <c r="C13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="17"/>
+      <c r="I13" s="18"/>
       <c r="J13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
       <c r="M13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O13" s="19"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="12"/>
     </row>
     <row r="14" spans="1:30" ht="15.75">
       <c r="A14" s="4" t="s">
@@ -1349,39 +1392,42 @@
       <c r="C14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="16"/>
+      <c r="H14" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="19"/>
       <c r="J14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
       <c r="M14" s="4" t="s">
         <v>34</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O14" s="19"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="12"/>
     </row>
     <row r="15" spans="1:30" ht="15.75">
       <c r="A15" s="4" t="s">
@@ -1393,39 +1439,42 @@
       <c r="C15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="16"/>
+      <c r="H15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="19"/>
       <c r="J15" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
       <c r="M15" t="s">
         <v>34</v>
       </c>
       <c r="N15" t="s">
         <v>47</v>
       </c>
-      <c r="O15" s="19"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="12"/>
     </row>
     <row r="16" spans="1:30" ht="15.75">
       <c r="A16" s="4" t="s">
@@ -1437,41 +1486,44 @@
       <c r="C16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="8" t="s">
         <v>29</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="16"/>
+      <c r="I16" s="19"/>
       <c r="J16" t="s">
         <v>34</v>
       </c>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
       <c r="M16" t="s">
         <v>34</v>
       </c>
       <c r="N16" t="s">
         <v>10</v>
       </c>
-      <c r="O16" s="19"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-    </row>
-    <row r="17" spans="1:24" ht="15.75">
+      <c r="O16" s="24"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="12"/>
+    </row>
+    <row r="17" spans="1:27" ht="15.75">
       <c r="A17" s="4" t="s">
         <v>49</v>
       </c>
@@ -1481,41 +1533,44 @@
       <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="8" t="s">
         <v>29</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="17"/>
+      <c r="H17" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="18"/>
       <c r="J17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
       <c r="M17" t="s">
         <v>47</v>
       </c>
       <c r="N17" t="s">
         <v>47</v>
       </c>
-      <c r="O17" s="19"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-    </row>
-    <row r="18" spans="1:24" ht="15.75">
+      <c r="O17" s="24"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="12"/>
+    </row>
+    <row r="18" spans="1:27" ht="15.75">
       <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
@@ -1525,54 +1580,45 @@
       <c r="C18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="8" t="s">
         <v>29</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="16"/>
+      <c r="H18" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="19"/>
       <c r="J18" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
       <c r="M18" t="s">
         <v>41</v>
       </c>
       <c r="N18" t="s">
         <v>48</v>
       </c>
-      <c r="O18" s="19"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="U3:U18"/>
-    <mergeCell ref="V3:V18"/>
-    <mergeCell ref="W3:X18"/>
-    <mergeCell ref="P3:S18"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="T3:T18"/>
-    <mergeCell ref="K3:L18"/>
+  <mergeCells count="28">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="D3:E18"/>
     <mergeCell ref="H2:I2"/>
@@ -1587,6 +1633,20 @@
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="O3:O18"/>
+    <mergeCell ref="Y3:Z18"/>
+    <mergeCell ref="AA3:AA18"/>
+    <mergeCell ref="U3:U18"/>
+    <mergeCell ref="V3:V18"/>
+    <mergeCell ref="W3:X18"/>
+    <mergeCell ref="P3:S18"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="T3:T18"/>
+    <mergeCell ref="K3:L18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/UI_Report.xlsx
+++ b/UI_Report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="58">
   <si>
     <t>MONTHLY REPORT</t>
   </si>
@@ -197,9 +197,6 @@
     <t>25_Mail &amp; Github®</t>
   </si>
   <si>
-    <t>NO  ONE MAILED &amp; UPDATED</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Done</t>
   </si>
   <si>
@@ -210,6 +207,9 @@
   </si>
   <si>
     <t>NO POWER AT OFFICE</t>
+  </si>
+  <si>
+    <t>NO  ONE MAILED &amp; UPDATED NET ISSUE</t>
   </si>
 </sst>
 </file>
@@ -371,31 +371,10 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -407,7 +386,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -704,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD18"/>
+  <dimension ref="A1:AE18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3:AA18"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -727,41 +727,41 @@
     <col min="28" max="30" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="39" customHeight="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:31" ht="39" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
     </row>
-    <row r="2" spans="1:30" ht="15.75">
+    <row r="2" spans="1:31" ht="15.75">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -783,10 +783,10 @@
       <c r="G2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="19"/>
+      <c r="I2" s="17"/>
       <c r="J2" s="2" t="s">
         <v>40</v>
       </c>
@@ -844,8 +844,11 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="2"/>
+      <c r="AE2" s="2">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" ht="15.75">
+    <row r="3" spans="1:31" ht="15.75">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -855,64 +858,67 @@
       <c r="C3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="23"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="19"/>
+      <c r="I3" s="17"/>
       <c r="J3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="15"/>
+      <c r="L3" s="13"/>
       <c r="M3" s="6" t="s">
         <v>34</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="12" t="s">
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="U3" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="V3" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="W3" s="12" t="s">
+      <c r="V3" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="W3" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="12" t="s">
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="12" t="s">
-        <v>57</v>
+      <c r="AE3" s="21" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="15.75">
+    <row r="4" spans="1:31" ht="15.75">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -922,44 +928,45 @@
       <c r="C4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="19"/>
+      <c r="I4" s="17"/>
       <c r="J4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
       <c r="M4" t="s">
         <v>29</v>
       </c>
       <c r="N4" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="24"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="12"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="21"/>
+      <c r="AE4" s="21"/>
     </row>
-    <row r="5" spans="1:30" ht="15.75">
+    <row r="5" spans="1:31" ht="15.75">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -969,44 +976,45 @@
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
       <c r="F5" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="19"/>
+      <c r="H5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="17"/>
       <c r="J5" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
       <c r="M5" t="s">
         <v>34</v>
       </c>
       <c r="N5" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="24"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="12"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="21"/>
+      <c r="AE5" s="21"/>
     </row>
-    <row r="6" spans="1:30" ht="15.75">
+    <row r="6" spans="1:31" ht="15.75">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1016,44 +1024,45 @@
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="19"/>
+      <c r="H6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="17"/>
       <c r="J6" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
       <c r="M6" t="s">
         <v>34</v>
       </c>
       <c r="N6" t="s">
         <v>34</v>
       </c>
-      <c r="O6" s="24"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="12"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="21"/>
+      <c r="AE6" s="21"/>
     </row>
-    <row r="7" spans="1:30" ht="15.75">
+    <row r="7" spans="1:31" ht="15.75">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -1063,44 +1072,45 @@
       <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="19"/>
+      <c r="H7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="17"/>
       <c r="J7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
       <c r="M7" s="4" t="s">
         <v>29</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="24"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="12"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="21"/>
+      <c r="AE7" s="21"/>
     </row>
-    <row r="8" spans="1:30" ht="15.75">
+    <row r="8" spans="1:31" ht="15.75">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -1110,44 +1120,45 @@
       <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="19"/>
+      <c r="H8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="17"/>
       <c r="J8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
       <c r="M8" t="s">
         <v>34</v>
       </c>
       <c r="N8" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="24"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="12"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="21"/>
+      <c r="AE8" s="21"/>
     </row>
-    <row r="9" spans="1:30" ht="15.75">
+    <row r="9" spans="1:31" ht="15.75">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1157,44 +1168,45 @@
       <c r="C9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="19"/>
+      <c r="H9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="17"/>
       <c r="J9" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
       <c r="M9" t="s">
         <v>34</v>
       </c>
       <c r="N9" t="s">
         <v>46</v>
       </c>
-      <c r="O9" s="24"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="12"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="21"/>
+      <c r="AE9" s="21"/>
     </row>
-    <row r="10" spans="1:30" ht="15.75">
+    <row r="10" spans="1:31" ht="15.75">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -1204,44 +1216,45 @@
       <c r="C10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="19"/>
+      <c r="H10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="17"/>
       <c r="J10" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
       <c r="M10" t="s">
         <v>29</v>
       </c>
       <c r="N10" t="s">
         <v>45</v>
       </c>
-      <c r="O10" s="24"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="12"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="21"/>
+      <c r="AE10" s="21"/>
     </row>
-    <row r="11" spans="1:30" ht="15.75">
+    <row r="11" spans="1:31" ht="15.75">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1251,44 +1264,45 @@
       <c r="C11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="19"/>
+      <c r="I11" s="17"/>
       <c r="J11" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
       <c r="M11" t="s">
         <v>34</v>
       </c>
       <c r="N11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="O11" s="24"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="12"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="21"/>
+      <c r="AE11" s="21"/>
     </row>
-    <row r="12" spans="1:30" ht="15.75">
+    <row r="12" spans="1:31" ht="15.75">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -1298,8 +1312,8 @@
       <c r="C12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="5" t="s">
         <v>23</v>
       </c>
@@ -1313,29 +1327,30 @@
       <c r="J12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
       <c r="M12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="N12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O12" s="24"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="12"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="21"/>
+      <c r="AE12" s="21"/>
     </row>
-    <row r="13" spans="1:30" ht="15.75">
+    <row r="13" spans="1:31" ht="15.75">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
@@ -1345,8 +1360,8 @@
       <c r="C13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="5" t="s">
         <v>23</v>
       </c>
@@ -1360,29 +1375,30 @@
       <c r="J13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
       <c r="M13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O13" s="24"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="12"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="21"/>
+      <c r="AE13" s="21"/>
     </row>
-    <row r="14" spans="1:30" ht="15.75">
+    <row r="14" spans="1:31" ht="15.75">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
@@ -1392,44 +1408,45 @@
       <c r="C14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="19"/>
+      <c r="H14" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="17"/>
       <c r="J14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
       <c r="M14" s="4" t="s">
         <v>34</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O14" s="24"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="12"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="21"/>
+      <c r="AE14" s="21"/>
     </row>
-    <row r="15" spans="1:30" ht="15.75">
+    <row r="15" spans="1:31" ht="15.75">
       <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
@@ -1439,44 +1456,45 @@
       <c r="C15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="19"/>
+      <c r="H15" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="17"/>
       <c r="J15" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
       <c r="M15" t="s">
         <v>34</v>
       </c>
       <c r="N15" t="s">
-        <v>47</v>
-      </c>
-      <c r="O15" s="24"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="O15" s="20"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="21"/>
+      <c r="AE15" s="21"/>
     </row>
-    <row r="16" spans="1:30" ht="15.75">
+    <row r="16" spans="1:31" ht="15.75">
       <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
@@ -1486,44 +1504,45 @@
       <c r="C16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="8" t="s">
         <v>29</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="19"/>
+      <c r="I16" s="17"/>
       <c r="J16" t="s">
         <v>34</v>
       </c>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
       <c r="M16" t="s">
         <v>34</v>
       </c>
       <c r="N16" t="s">
         <v>10</v>
       </c>
-      <c r="O16" s="24"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="12"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="21"/>
+      <c r="AE16" s="21"/>
     </row>
-    <row r="17" spans="1:27" ht="15.75">
+    <row r="17" spans="1:31" ht="15.75">
       <c r="A17" s="4" t="s">
         <v>49</v>
       </c>
@@ -1533,8 +1552,8 @@
       <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="8" t="s">
         <v>29</v>
       </c>
@@ -1548,29 +1567,30 @@
       <c r="J17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
       <c r="M17" t="s">
         <v>47</v>
       </c>
       <c r="N17" t="s">
         <v>47</v>
       </c>
-      <c r="O17" s="24"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="12"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="21"/>
+      <c r="AE17" s="21"/>
     </row>
-    <row r="18" spans="1:27" ht="15.75">
+    <row r="18" spans="1:31" ht="15.75">
       <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
@@ -1580,45 +1600,60 @@
       <c r="C18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="8" t="s">
         <v>29</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="19"/>
+      <c r="H18" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="17"/>
       <c r="J18" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
       <c r="M18" t="s">
         <v>41</v>
       </c>
       <c r="N18" t="s">
         <v>48</v>
       </c>
-      <c r="O18" s="24"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="12"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="21"/>
+      <c r="AE18" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
+    <mergeCell ref="AE3:AE18"/>
+    <mergeCell ref="U3:U18"/>
+    <mergeCell ref="V3:V18"/>
+    <mergeCell ref="W3:X18"/>
+    <mergeCell ref="P3:S18"/>
+    <mergeCell ref="T3:T18"/>
+    <mergeCell ref="AA3:AA18"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="K3:L18"/>
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="D3:E18"/>
     <mergeCell ref="H2:I2"/>
@@ -1634,19 +1669,6 @@
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="O3:O18"/>
     <mergeCell ref="Y3:Z18"/>
-    <mergeCell ref="AA3:AA18"/>
-    <mergeCell ref="U3:U18"/>
-    <mergeCell ref="V3:V18"/>
-    <mergeCell ref="W3:X18"/>
-    <mergeCell ref="P3:S18"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="T3:T18"/>
-    <mergeCell ref="K3:L18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
